--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
@@ -2492,7 +2492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  여러 라이타니엔인이 우리에게 합류한 뒤로 우리의 구성이 다양해지긴 했지만……
+    <t xml:space="preserve">[name="머드락"]  여러 라이타니아인이 우리에게 합류한 뒤로 우리의 구성이 다양해지긴 했지만……
 </t>
   </si>
   <si>
@@ -2508,7 +2508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="그레이스롯"]  그래서, 너는? 너는 라이타니엔의 찬동자인가, 아니면 음모를 품고 다른 곳에서 온 방랑자인가?
+    <t xml:space="preserve">[name="그레이스롯"]  그래서, 너는? 너는 라이타니아의 찬동자인가, 아니면 음모를 품고 다른 곳에서 온 방랑자인가?
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  우리는 탐정 놀이와는 거리가 멀지만…… 우리 동료 중엔 라이타니엔인이 많았지.
+    <t xml:space="preserve">[name="머드락"]  우리는 탐정 놀이와는 거리가 멀지만…… 우리 동료 중엔 라이타니아인이 많았지.
 </t>
   </si>
   <si>
@@ -2712,7 +2712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이어스카르페"]  확실히, 평소 감염자에 대한 라이타니엔의 너그러운 태도로 미루어 보면, 다른 원인이 있지 않고서야 일이 이 지경이 되진 않았을 테니.
+    <t xml:space="preserve">[name="에이어스카르페"]  확실히, 평소 감염자에 대한 라이타니아의 너그러운 태도로 미루어 보면, 다른 원인이 있지 않고서야 일이 이 지경이 되진 않았을 테니.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
@@ -1560,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  And “Winterwisp.” Severin wouldn’t say much about it, so I can’t be sure exactly what it means. But since they’re in cahoots with the militia group, they’re at the top of the list too.
+    <t xml:space="preserve">[name="Folinic"]  And 'Winterwisp.' Severin wouldn’t say much about it, so I can’t be sure exactly what it means. But since they’re in cahoots with the militia group, they’re at the top of the list too.
 </t>
   </si>
   <si>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  N- no! It’s Arts! He actually “caught” the bolt! With mud!
+    <t xml:space="preserve">[name="Click"]  N- no! It’s Arts! He actually 'caught' the bolt! With mud!
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  That “Winterwisp” is an important clue. We might have to investigate it further. Ayerscarpe, you come with me. Click, I’d like you to scout out their camp.
+    <t xml:space="preserve">[name="GreyThroat"]  That 'Winterwisp' is an important clue. We might have to investigate it further. Ayerscarpe, you come with me. Click, I’d like you to scout out their camp.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  I don’t know of any “Winterwisp.” Leave me alone.
+    <t xml:space="preserve">[name="Townsfolk"]  I don’t know of any 'Winterwisp.' Leave me alone.
 </t>
   </si>
   <si>
@@ -2060,11 +2060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  The “Winterwisps” are part of Wolumonde’s history. But they’re a pretty controversial topic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Seems to me there’s a big controversy over the “Winterwisps” right now.
+    <t xml:space="preserve">[name="Townsfolk"]  The 'Winterwisps' are part of Wolumonde’s history. But they’re a pretty controversial topic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Seems to me there’s a big controversy over the 'Winterwisps' right now.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
@@ -1464,7 +1464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But that’s where the bad man who hurt Papa is? Are you going to punish him?
+    <t xml:space="preserve">But that's where the bad man who hurt Papa is? Are you going to punish him?
 </t>
   </si>
   <si>
@@ -1476,11 +1476,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Then... I don’t want you to go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have to go? But I don’t want you to go back to Ursus... The bread there is so hard. And winter is so cold.
+    <t xml:space="preserve">Then... I don't want you to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to go? But I don't want you to go back to Ursus... The bread there is so hard. And winter is so cold.
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I asked Dr. Kal'tsit where Mama went. She didn’t say much, just that Mama and Papa were together, buried deep inside Ursus.
+    <t xml:space="preserve">I asked Dr. Kal'tsit where Mama went. She didn't say much, just that Mama and Papa were together, buried deep inside Ursus.
 </t>
   </si>
   <si>
@@ -1536,47 +1536,47 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Lisa, you don’t have to come with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  I’m worried.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You shouldn’t be. I’m just going to look around and see if maybe there are some clues about that armed Infected group.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Do you think they’re behind it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m not sure. That’s the obvious answer, since we have no evidence.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  But with the town as it is, they’re the most likely suspects, aren’t they?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And 'Winterwisp.' Severin wouldn’t say much about it, so I can’t be sure exactly what it means. But since they’re in cahoots with the militia group, they’re at the top of the list too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  The mountain range near here is called the Winterwisp Mountains. It’s a barren place, covered with ice and snow year round... could that have to do with anything?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I really don’t know. All I can say for sure is I have to find our murderer, and then pull my answers out of them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Folinic, you’ve been really... scary. Since yesterday.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m sorry, Lisa.
+    <t xml:space="preserve">[name="Folinic"]  Lisa, you don't have to come with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I'm worried.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You shouldn't be. I'm just going to look around and see if maybe there are some clues about that armed Infected group.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Do you think they're behind it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'm not sure. That's the obvious answer, since we have no evidence.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  But with the town as it is, they're the most likely suspects, aren't they?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And 'Winterwisp.' Severin wouldn't say much about it, so I can't be sure exactly what it means. But since they're in cahoots with the militia group, they're at the top of the list too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  The mountain range near here is called the Winterwisp Mountains. It's a barren place, covered with ice and snow year round... could that have to do with anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I really don't know. All I can say for sure is I have to find our murderer, and then pull my answers out of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Folinic, you've been really... scary. Since yesterday.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'm sorry, Lisa.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  This is the second time I’ve had to say goodbye to someone like that. And this time, I’m not leaving with regrets.
+    <t xml:space="preserve">[name="Folinic"]  This is the second time I've had to say goodbye to someone like that. And this time, I'm not leaving with regrets.
 </t>
   </si>
   <si>
@@ -1592,15 +1592,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Come out. I won’t hurt you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Click"]  Aww. I like to think I’m pretty good at hiding. How did you see me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Hmm... Intuition? Let’s call it that...
+    <t xml:space="preserve">[name="Mudrock"]  Come out. I won't hurt you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Click"]  Aww. I like to think I'm pretty good at hiding. How did you see me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Hmm... Intuition? Let's call it that...
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  I’ve gone through some of Rhodes Island’s combat records. You’re no ordinary Infected.
+    <t xml:space="preserve">[name="Ayerscarpe"]  I've gone through some of Rhodes Island's battle records. You're no ordinary Infected.
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  GreyThroat isn’t back yet... We have to stall him, at least.
+    <t xml:space="preserve">[name="Ayerscarpe"]  GreyThroat isn't back yet... We have to stall him, at least.
 </t>
   </si>
   <si>
@@ -1636,15 +1636,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Calm down. Don’t attack him. Click!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Don’t do anything stupid!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Click"]  Gah! I- I’m sorry!
+    <t xml:space="preserve">[name="Ayerscarpe"]  Calm down. Don't attack him. Click!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  Don't do anything stupid!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Click"]  Gah! I- I'm sorry!
 </t>
   </si>
   <si>
@@ -1652,11 +1652,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Did I scare you? Sorry. I just wanted you two to know, you can’t fight me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  If you are from Wolumonde, you’d better leave. It’s dangerous. If angry Winterwisps or Infected found you... You’d be in mortal danger.
+    <t xml:space="preserve">[name="Mudrock"]  Did I scare you? Sorry. I just wanted you two to know, you can't fight me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  If you are from Wolumonde, you'd better leave. It's dangerous. If angry Winterwisps or Infected found you... You'd be in mortal danger.
 </t>
   </si>
   <si>
@@ -1668,15 +1668,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  I just came to lay some flowers. And then I’ll leave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Is that an ordinary wildflower you’re holding there?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  It’s cold here in the fall. I dream a lot... I dream of these flowers. They’re like the children of that snowy mountain... icy cold.
+    <t xml:space="preserve">[name="Mudrock"]  I just came to lay some flowers. And then I'll leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  Is that an ordinary wildflower you're holding there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  It's cold here in the fall. I dream a lot... I dream of these flowers. They're like the children of that snowy mountain... icy cold.
 </t>
   </si>
   <si>
@@ -1684,11 +1684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  (Did he really just come to pray? He wouldn’t just be using this as a cover for some kind of Originium Arts, would he?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  (With his face hidden, I can’t tell whether he’s lying or not. But...)
+    <t xml:space="preserve">[name="Click"]  (Did he really just come to pray? He wouldn't just be using this as a cover for some kind of Originium Arts, would he?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  (With his face hidden, I can't tell whether he's lying or not. But...)
 </t>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Don’t move. Don’t turn around. Put your hands up.
+    <t xml:space="preserve">[name="GreyThroat"]  Don't move. Don't turn around. Put your hands up.
 </t>
   </si>
   <si>
@@ -1708,27 +1708,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  When did you get here? You’re pretty smooth...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Whatever. Your bolts can’t hurt me, Rhodes Island crossbowman.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I said don’t move. I just want to ask you something.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  A conversation doesn’t reveal your strength... what’s the point?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Don’t say I didn’t warn you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Look. I’ve caught your bolt. You can’t put a scratch on me.
+    <t xml:space="preserve">[name="Mudrock"]  When did you get here? You're pretty smooth...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Whatever. Your bolts can't hurt me, Rhodes Island crossbowman.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I said don't move. I just want to ask you something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  A conversation doesn't reveal your strength... what's the point?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Don't say I didn't warn you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Look. I've caught your bolt. You can't put a scratch on me.
 </t>
   </si>
   <si>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  N- no! It’s Arts! He actually 'caught' the bolt! With mud!
+    <t xml:space="preserve">[name="Click"]  N- no! It's Arts! He actually 'caught' the bolt! With mud!
 </t>
   </si>
   <si>
@@ -1748,11 +1748,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  At least you didn’t shoot without warning. I hate sneak attacks. You’re not so bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  And... Hm, if you wound up that second bolt... what would’ve happened?
+    <t xml:space="preserve">[name="Mudrock"]  At least you didn't shoot without warning. I hate sneak attacks. You're not so bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  And... Hm, if you wound up that second bolt... what would've happened?
 </t>
   </si>
   <si>
@@ -1760,11 +1760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Hm... Even if I don’t, I do have a very thick suit of armor...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Doesn’t matter. Since you have no intention of fighting to the death, I’ve had enough.
+    <t xml:space="preserve">[name="Mudrock"]  Hm... Even if I don't, I do have a very thick suit of armor...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Doesn't matter. Since you have no intention of fighting to the death, I've had enough.
 </t>
   </si>
   <si>
@@ -1800,23 +1800,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Me...? Hm... I guess so. Our aimless journey began in Kazdel. And we’ve been on the run ever since.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Wolumonde is a mess. And I’m sure you had something to do with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Right. There’s no way we wouldn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  But I... am not Reunion either. Not anymore. I’m just the captain of Mudrock Squad. A... mercenary? No, let’s say I’m just an Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Click"]  (Why does it seems like he’s always talking to himself? What kind of Reunion guy thinks like that?)
+    <t xml:space="preserve">[name="Mudrock"]  Me...? Hm... I guess so. Our aimless journey began in Kazdel. And we've been on the run ever since.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Wolumonde is a mess. And I'm sure you had something to do with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Right. There's no way we wouldn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  But I... am not Reunion either. Not anymore. I'm just the captain of Mudrock Squad. A... mercenary? No, let's say I'm just an Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Click"]  (Why does it seems like he's always talking to himself? What kind of Reunion guy thinks like that?)
 </t>
   </si>
   <si>
@@ -1828,7 +1828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  But, really... What am I? I’m not a mercenary. I’m not Reunion. As things are now, I’m...
+    <t xml:space="preserve">[name="Mudrock"]  But, really... What am I? I'm not a mercenary. I'm not Reunion. As things are now, I'm...
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  My Arts dirtied the flowers... They’re so hard to find, this time of year.
+    <t xml:space="preserve">[name="Mudrock"]  My Arts dirtied the flowers... They're so hard to find, this time of year.
 </t>
   </si>
   <si>
@@ -1852,7 +1852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Click, Ayerscarpe, keep your guard up. But don’t attack him. Stay clear.
+    <t xml:space="preserve">[name="GreyThroat"]  Click, Ayerscarpe, keep your guard up. But don't attack him. Stay clear.
 </t>
   </si>
   <si>
@@ -1876,11 +1876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We’re not so good with crime scene investigation or anything like that... But there are a lot of Leithaniens with us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  They’ve all been educated, and they have a natural talent for Arts unlike people from other countries.
+    <t xml:space="preserve">[name="Mudrock"]  We're not so good with crime scene investigation or anything like that... But there are a lot of Leithaniens with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  They've all been educated, and they have a natural talent for Arts unlike people from other countries.
 </t>
   </si>
   <si>
@@ -1892,7 +1892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  If we knew, he’d already be dead and the town would be at peace.
+    <t xml:space="preserve">[name="Mudrock"]  If we knew, he'd already be dead and the town would be at peace.
 </t>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  I think you misunderstood. I am not your enemy. I’m only here to pay respects to my people.
+    <t xml:space="preserve">[name="Mudrock"]  I think you misunderstood. I am not your enemy. I'm only here to pay respects to my people.
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  So that’s it then. But it doesn’t matter. I’ve gleaned a lot from your attitude alone.
+    <t xml:space="preserve">[name="GreyThroat"]  So that's it then. But it doesn't matter. I've gleaned a lot from your attitude alone.
 </t>
   </si>
   <si>
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  It’s a mess. The Infected have risen up in protest, and they’re fighting with the non-infected.
+    <t xml:space="preserve">[name="GreyThroat"]  It's a mess. The Infected have risen up in protest, and they're fighting with the non-infected.
 </t>
   </si>
   <si>
@@ -1932,15 +1932,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  That’s not good. So many innocent people hurt... But...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  But until Wolumonde admits its guilt, and until they hand over the murderer, there can’t be peace.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  How could I convince them to stop, when they’re outraged by the deaths of their people...?
+    <t xml:space="preserve">[name="Mudrock"]  That's not good. So many innocent people hurt... But...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  But until Wolumonde admits its guilt, and until they hand over the murderer, there can't be peace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  How could I convince them to stop, when they're outraged by the deaths of their people...?
 </t>
   </si>
   <si>
@@ -1956,11 +1956,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Oh... I’ve said enough. I still can’t completely trust you, Rhodes Island.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Right. Still not enough trust. So that’s it... goodbye.
+    <t xml:space="preserve">[name="Mudrock"]  Oh... I've said enough. I still can't completely trust you, Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Right. Still not enough trust. So that's it... goodbye.
 </t>
   </si>
   <si>
@@ -1968,11 +1968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  GreyThroat! That guy’s really scary! Even scarier than all those big Felines back at Rhodes Island!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  At least he wasn’t being very aggressive. But if he does have a whole squad with him... Wolumonde is in no condition to fight them.
+    <t xml:space="preserve">[name="Click"]  GreyThroat! That guy's really scary! Even scarier than all those big Felines back at Rhodes Island!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  At least he wasn't being very aggressive. But if he does have a whole squad with him... Wolumonde is in no condition to fight them.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  A direct attack is out of the question, and agitating them will only make Wolumonde’s situation worse. Not to mention, we still don’t know where Atro is.
+    <t xml:space="preserve">[name="GreyThroat"]  A direct attack is out of the question, and agitating them will only make Wolumonde's situation worse. Not to mention, we still don't know where Atro is.
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  But I found something very concerning. This doesn’t seem to be a typical Infected conflict.
+    <t xml:space="preserve">[name="GreyThroat"]  But I found something very concerning. This doesn't seem to be a typical Infected conflict.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  That 'Winterwisp' is an important clue. We might have to investigate it further. Ayerscarpe, you come with me. Click, I’d like you to scout out their camp.
+    <t xml:space="preserve">[name="GreyThroat"]  That 'Winterwisp' is an important clue. We might have to investigate it further. Ayerscarpe, you come with me. Click, I'd like you to scout out their camp.
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  *Sigh*. If I’d known it would turn out like this, I would have stayed in the dormitory to watch Leonhardt play with rocks...
+    <t xml:space="preserve">[name="Ayerscarpe"]  *Sigh*. If I'd known it would turn out like this, I would have stayed in the dormitory to watch Leonhardt play with rocks...
 </t>
   </si>
   <si>
@@ -2032,15 +2032,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Who are you? Rhodes Island? Outlanders shouldn’t be meddling. This has nothing to do with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  I don’t know of any 'Winterwisp.' Leave me alone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Winterwisp? No, there are no Winterwisps in Wolumonde. Haven’t been for a long time.
+    <t xml:space="preserve">[name="Townsfolk"]  Who are you? Rhodes Island? Outlanders shouldn't be meddling. This has nothing to do with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  I don't know of any 'Winterwisp.' Leave me alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Winterwisp? No, there are no Winterwisps in Wolumonde. Haven't been for a long time.
 </t>
   </si>
   <si>
@@ -2048,27 +2048,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  No, I mean... Oh, I shouldn’t be talking to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Listen, I don’t care what it is you’re doing. But Wolumonde is a tighter community than you can imagine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Most folks won’t even tell you this rule, but I’ll make an exception and explain it to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  The 'Winterwisps' are part of Wolumonde’s history. But they’re a pretty controversial topic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Seems to me there’s a big controversy over the 'Winterwisps' right now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  You mean the power plant getting destroyed the other day? There’s worse than that...
+    <t xml:space="preserve">[name="Townsfolk"]  No, I mean... Oh, I shouldn't be talking to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Listen, I don't care what it is you're doing. But Wolumonde is a tighter community than you can imagine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Most folks won't even tell you this rule, but I'll make an exception and explain it to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  The 'Winterwisps' are part of Wolumonde's history. But they're a pretty controversial topic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Seems to me there's a big controversy over the 'Winterwisps' right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  You mean the power plant getting destroyed the other day? There's worse than that...
 </t>
   </si>
   <si>
@@ -2080,7 +2080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Don’t get ahead of yourself, outsider. This issue is absolutely taboo. The noble lords come down hard. And I don’t want any trouble.
+    <t xml:space="preserve">[name="Townsfolk"]  Don't get ahead of yourself, outsider. This issue is absolutely taboo. The noble lords come down hard. And I don't want any trouble.
 </t>
   </si>
   <si>
@@ -2088,7 +2088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Huh... How can we find a Winterwisp if we don’t know what it is? That doesn’t make any sense...
+    <t xml:space="preserve">[name="Suzuran"]  Huh... How can we find a Winterwisp if we don't know what it is? That doesn't make any sense...
 </t>
   </si>
   <si>
@@ -2096,7 +2096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Figure it out yourselves. I don’t know anything.
+    <t xml:space="preserve">[name="Townsfolk"]  Figure it out yourselves. I don't know anything.
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  He’s gone. Can you believe that guy?!
+    <t xml:space="preserve">[name="Suzuran"]  He's gone. Can you believe that guy?!
 </t>
   </si>
   <si>
@@ -2116,7 +2116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Well, we did make a major breakthrough. I just hope he doesn’t dodge the subject like he did last time.
+    <t xml:space="preserve">[name="Folinic"]  Well, we did make a major breakthrough. I just hope he doesn't dodge the subject like he did last time.
 </t>
   </si>
   <si>
@@ -2128,7 +2128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Blyat! How is it another day goes by and we’re still none the wiser?!
+    <t xml:space="preserve">[name="Folinic"]  Blyat! How is it another day goes by and we're still none the wiser?!
 </t>
   </si>
   <si>
@@ -2136,11 +2136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m calm! I just... I...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  There’s something wrong here... I know it... But Atro... She... What the hell am I going to do...?
+    <t xml:space="preserve">[name="Folinic"]  I'm calm! I just... I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  There's something wrong here... I know it... But Atro... She... What the hell am I going to do...?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_end.xlsx
@@ -2492,7 +2492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  여러 라이타니아인이 우리에게 합류한 뒤로 우리의 구성이 다양해지긴 했지만……
+    <t xml:space="preserve">[name="머드락"]  여러 라이타니엔인이 우리에게 합류한 뒤로 우리의 구성이 다양해지긴 했지만……
 </t>
   </si>
   <si>
@@ -2508,7 +2508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="그레이스롯"]  그래서, 너는? 너는 라이타니아의 찬동자인가, 아니면 음모를 품고 다른 곳에서 온 방랑자인가?
+    <t xml:space="preserve">[name="그레이스롯"]  그래서, 너는? 너는 라이타니엔의 찬동자인가, 아니면 음모를 품고 다른 곳에서 온 방랑자인가?
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  우리는 탐정 놀이와는 거리가 멀지만…… 우리 동료 중엔 라이타니아인이 많았지.
+    <t xml:space="preserve">[name="머드락"]  우리는 탐정 놀이와는 거리가 멀지만…… 우리 동료 중엔 라이타니엔인이 많았지.
 </t>
   </si>
   <si>
@@ -2712,7 +2712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이어스카르페"]  확실히, 평소 감염자에 대한 라이타니아의 너그러운 태도로 미루어 보면, 다른 원인이 있지 않고서야 일이 이 지경이 되진 않았을 테니.
+    <t xml:space="preserve">[name="에이어스카르페"]  확실히, 평소 감염자에 대한 라이타니엔의 너그러운 태도로 미루어 보면, 다른 원인이 있지 않고서야 일이 이 지경이 되진 않았을 테니.
 </t>
   </si>
   <si>
